--- a/biology/Botanique/Œnothère/Œnothère.xlsx
+++ b/biology/Botanique/Œnothère/Œnothère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92noth%C3%A8re</t>
+          <t>Œnothère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oenothera
 Oenothera est un genre de plantes à fleurs de la famille des Onagraceae. C'est le genre des œnothères, herbes aux ânes ou onagres. Ce sont des plantes herbacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92noth%C3%A8re</t>
+          <t>Œnothère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Onagre est emprunté au grec onagra (formé de onos, « âne » et agrios, « sauvage »), attesté dans cet emploi chez Dioscoride, par l'intermédiaire d'un latin botanique onagra ou oenagra (par rapprochement avec les termes en œno-, à cause de l'odeur vineuse des racines séchées de la plante ou de l'utilisation de la racine infusée pour apprivoiser les bêtes sauvages). Le nom de genre Oenothera vient ainsi du grec oïnos, « vin » et thêra, « chasse aux bêtes sauvages »[1].
-Plus précisément, le nom vient du grec oïnos, « vin » et thêráo, « chasser ou bien poursuivre » et signifie « la poursuivante du vin ». Théophraste (IVe – IIIe siècle av. J.-C.) écrit que l’onagre (oinothêras) administré avec du vin rend l'esprit agréable et heureux[2].
-Les grosses racines au goût un peu poivré sont consommées crues ou le plus souvent cuites après épluchage, leur chair blanchâtre prenant une teinte un peu rose à la cuisson et un goût de viande fumée, ce qui vaut à ces plantes le surnom de « jambon des jardiniers »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Onagre est emprunté au grec onagra (formé de onos, « âne » et agrios, « sauvage »), attesté dans cet emploi chez Dioscoride, par l'intermédiaire d'un latin botanique onagra ou oenagra (par rapprochement avec les termes en œno-, à cause de l'odeur vineuse des racines séchées de la plante ou de l'utilisation de la racine infusée pour apprivoiser les bêtes sauvages). Le nom de genre Oenothera vient ainsi du grec oïnos, « vin » et thêra, « chasse aux bêtes sauvages ».
+Plus précisément, le nom vient du grec oïnos, « vin » et thêráo, « chasser ou bien poursuivre » et signifie « la poursuivante du vin ». Théophraste (IVe – IIIe siècle av. J.-C.) écrit que l’onagre (oinothêras) administré avec du vin rend l'esprit agréable et heureux.
+Les grosses racines au goût un peu poivré sont consommées crues ou le plus souvent cuites après épluchage, leur chair blanchâtre prenant une teinte un peu rose à la cuisson et un goût de viande fumée, ce qui vaut à ces plantes le surnom de « jambon des jardiniers ».
 </t>
         </is>
       </c>
